--- a/클리니아/개발직군_scrum일지.xlsx
+++ b/클리니아/개발직군_scrum일지.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB1E91B-05C5-40EC-B817-C2E336818D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2F085-5A48-4695-A5FD-F4BF261E4C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{57E58335-2C79-41D8-8F7D-2E5FA4AA8D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="9월" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +99,53 @@
   <si>
     <t>아이템개발이 살짝 딜레이가 되는 것 같다
 아이템이 UI랑 붙어있는 부분이 많아서 어쩔 수 없는 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵제작, 카메라워크, ui 문제점 수정
+마우스 동작관련 해결방법 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택창 껍데기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui설치가 오래걸린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작화면 구현
+채팅창 UI 구현 하는중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵과 관련된 마우스동작 구현중
+옵션세팅 UI 구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택창 작업중 / 캐릭터 생성 UI작업은 세이브 데이터 완료시 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 장착 표현 부분 구현완료 / 스탯 반영은 협업 필요
+아이템 프리팹 만들고있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 무브먼트와 관련된 짧은 회의
+다양한 방법론이 나옴
+UI와 관련된 껍데기 작업은 거의 완료되어가나
+내부적인 시스템동작은 아직 시간이 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,22 +217,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,9 +261,9 @@
   <autoFilter ref="B2:F22" xr:uid="{C09AA73F-B859-438A-8974-938855775943}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6D7B43FC-1A5C-4A85-A62B-95ABDBB869A1}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{97DACC6E-8CF2-4274-A0E1-990068DB0234}" name="김민석"/>
-    <tableColumn id="3" xr3:uid="{548364FE-DF93-4854-B452-B7325982FF06}" name="전민용"/>
-    <tableColumn id="4" xr3:uid="{909D84F8-04C7-4301-A901-B29B77361C4C}" name="류한진"/>
+    <tableColumn id="2" xr3:uid="{97DACC6E-8CF2-4274-A0E1-990068DB0234}" name="김민석" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{548364FE-DF93-4854-B452-B7325982FF06}" name="전민용" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{909D84F8-04C7-4301-A901-B29B77361C4C}" name="류한진" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{BD679DEB-1F42-4C6E-927A-B6E6C26DEB37}" name="특이사항" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -513,38 +570,38 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
-    <col min="6" max="6" width="43.75" style="2" customWidth="1"/>
+    <col min="3" max="4" width="34.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -558,10 +615,10 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -575,11 +632,45 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="34:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -596,4 +687,19 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F751E7-462F-4422-9728-82BB6C62CB09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/클리니아/개발직군_scrum일지.xlsx
+++ b/클리니아/개발직군_scrum일지.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2F085-5A48-4695-A5FD-F4BF261E4C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{57E58335-2C79-41D8-8F7D-2E5FA4AA8D3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="9월" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,11 +147,37 @@
 내부적인 시스템동작은 아직 시간이 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>30일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경설정 완료, 씬 전환시 의도대로 동작하지 않는 이슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌드 통합 작업
+UI가 입력을 막아주는 기능 테스트중
+스킬창틀, 채팅창 작업 마무리단계
+이동 매커니즘 수정중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 스테이터스 적용과정에서 이슈발생
+효율적으로 동작/작업을 위한 개선작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최적화 작업 학습이 필요하다
+몬스터 작업을 위한 구조설계와 작업분배
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,14 +282,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09AA73F-B859-438A-8974-938855775943}" name="표1" displayName="표1" ref="B2:F22" totalsRowShown="0">
-  <autoFilter ref="B2:F22" xr:uid="{C09AA73F-B859-438A-8974-938855775943}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:F22" totalsRowShown="0">
+  <autoFilter ref="B2:F22"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D7B43FC-1A5C-4A85-A62B-95ABDBB869A1}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{97DACC6E-8CF2-4274-A0E1-990068DB0234}" name="김민석" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{548364FE-DF93-4854-B452-B7325982FF06}" name="전민용" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{909D84F8-04C7-4301-A901-B29B77361C4C}" name="류한진" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BD679DEB-1F42-4C6E-927A-B6E6C26DEB37}" name="특이사항" dataDxfId="0"/>
+    <tableColumn id="1" name="일자"/>
+    <tableColumn id="2" name="김민석" dataDxfId="3"/>
+    <tableColumn id="3" name="전민용" dataDxfId="2"/>
+    <tableColumn id="4" name="류한진" dataDxfId="1"/>
+    <tableColumn id="6" name="특이사항" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,11 +591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E77F945-9E89-4CB0-B24F-C24875EAE8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,6 +698,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="17" spans="34:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH17" s="1"/>
     </row>
@@ -690,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F751E7-462F-4422-9728-82BB6C62CB09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/클리니아/개발직군_scrum일지.xlsx
+++ b/클리니아/개발직군_scrum일지.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\GitHub\smallprecious\클리니아\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FBEE0-F202-48D5-B683-D15DA563F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="4575" yWindow="750" windowWidth="31695" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="9월" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="11월" sheetId="4" r:id="rId1"/>
+    <sheet name="10월" sheetId="3" r:id="rId2"/>
+    <sheet name="9월" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,16 +161,343 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">최적화 작업 학습이 필요하다
-몬스터 작업을 위한 구조설계와 작업분배
-</t>
+    <t>5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대청소 알고리즘 프로토타입 작성
+완전 랜덤으로 하려고 했다가 연산이 너무 복잡해서 미리 지점을 정해두는 방식으로 하기로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 애니메이션에 문제점 발견
+스킬사용과 관련된 부분 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 행동과 관련된 알고리즘 개발 및 테스트
+애니메이션 전환이 바로바로 이루어지지 않는 문제점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 그룹핑과 관련된 토의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 절차적생성 과정 완료
+상호작용 오브젝트 프로토타입 진행중
+ui관련 자잘한 피드백 반영
+씬별 inputmanager필요성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스킬 구조 완료 / 자잘한 애니메이션에 대한 수정과 사용 AI만 나오면 완료가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터 구현 및 행동 관련 AI개발중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 분열과 관련된 매커니즘 토의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 오브젝트 상호작용 후 상호작용이 막히는 것 까지 / UI 표기 피드백 문제점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터스킬 몇가지 구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI조작시 입력을 막는 코드가 제대로 작동이 안되는 문제점 / 몬스터들이 많을 때 플레이어를 둘러싸는 매커니즘 연구필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰이사냥과 관련된 기획적 의도 확립
+빌드와 관련된 회의
+추후 일정과 관련된 토의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화 작업 학습이 필요하다
+몬스터 작업을 위한 구조설계와 작업분배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 리팩토링
+ - 별도의 스킬용 storage 추가(확장성 추가)
+ - 애니메이터 정리 및 속도 수정 추가
+ - MP와 관련된 수정(소모타이밍 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브 데이터 작업
+ - 플레이어 정보
+ - 아이템 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬전환
+UI관련 이슈 조정
+앞으로는 퀘스트 먼저하고 다시 UI손대는걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 구현중
+ - 스킬 데이터 및 상세 수치들 인스펙터에서 수정가능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브데이터 구혀내용 구조설계 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵과 안개
+퀘스트 창 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프와 관련되서 금요일까지 정리해서 넘기기
+맵 진행 상황이 더딘느낌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 스킬 부분 애니메이션 적용 가능
+몬스터끼리의 충돌규칙 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점과 관련된 ui
+아이템 드래그 앤 드롭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌드와 관련되어서 피드백 할 때
+변경점과 미흡점을 구분해서 주었으면 좋겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 아이템을 담는 구조설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 드랍 구조설계(인스펙터에서 조절 가능하도록)
+이후 부분은 협업 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 생성과 관련된 구조 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 리뉴얼
+마을기능 구현은 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획적으로 아쉬운 부분들이 많음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이펙트 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브 데이터 작업 
+아이템 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui작업
+맵 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 사용할때만 한번에 돌도록 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비관련 인터페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무분담에 관한 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 리펙토링 완료, 몬스터 리펙토링 예정
+스킬 매니저를 분리시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 장착 메커니즘</t>
+  </si>
+  <si>
+    <t>npc작업 ui작업은 완료수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고랑 인벤토리와 관련되서 아이템이 복사되는 오류 캐치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 창 완료 / 확장성은 떨어지지만 당장에 효율적인 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 id로 실행가능 / 몬스터 특수능력 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘이 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수능력 객체생성류 기본작업 완료
+스킬 선택과 관련된 알고리즘을 위한 기획필요성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버그 수정 및 마을기능 관련작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc대화 및 퀘스트와 관련된 틀 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무분장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 기능들 사이의 뭔가를 주고받거나 데이터를 처리하는 과정이 매끄럽지 않아서 이를 개선하는 방법에 대한 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터스킬 관련 세부 수치들 인스펙터에서 조절가능
+오브젝트 풀링완성이 목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드를 입히기 위한 기능 구현, 기본적인 사운드 몇개 입힘
+전투시 사운드 들려오는 방향 구현을 위해 관련 기능 구현 예정
+ui와 사운드 작업 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 사용할 추적기능 생겨남
+몬스터의 상태랑 ai의 행동패턴이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 그리드 시스템을 구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력, 데미지와 관련된 계산식 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크럼은 화,수,목,금 진행
+(한태우 금요일날 참관 제한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기를 위한 스킬 on/off 구조 완성
+오브젝트풀링 작업
+몬스터 스탯과 관련되어서 한진님과 대화 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리와 관련된 기능들(상점 구매/판매, 창고) 완성 약간의 보완이 필요
+드래그와 관련된 기능들 작동하는 모습 확인가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트와 관련된 작업
+미니맵 관련 작업
+퀘스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업중 외부적인 요인에서 발생한 이슈로인해 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 테이블 관련 작업예정 / 레벨에 따른 스케일링 과정중에서 밸런싱 조절이 많이 필요해보였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 표기가 있어야 밸런스 조정작업이 용이해 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을맵 받았음, 미니맵 작업물로 작업중이나 실제 맵이랑 싱크가 안맞음 ui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,11 +571,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -282,14 +635,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:F22" totalsRowShown="0">
-  <autoFilter ref="B2:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{946AA356-3B80-4343-888E-6657B1D2295E}" name="표1_34" displayName="표1_34" ref="B2:F22" totalsRowShown="0">
+  <autoFilter ref="B2:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="일자"/>
-    <tableColumn id="2" name="김민석" dataDxfId="3"/>
-    <tableColumn id="3" name="전민용" dataDxfId="2"/>
-    <tableColumn id="4" name="류한진" dataDxfId="1"/>
-    <tableColumn id="6" name="특이사항" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7859CC16-9C6D-4A01-9824-DE6BA19E8DD9}" name="일자"/>
+    <tableColumn id="2" xr3:uid="{47043E36-FE60-443F-9443-C8AF7E4FAD0B}" name="김민석" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{0EBB9441-0553-4804-BCF4-86FEFFFE5726}" name="전민용" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{D8E9BC6D-2460-42CF-9AB8-ADD317495DD0}" name="류한진" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{72275BDF-E414-4B86-98CE-6F4ADEB777CD}" name="특이사항" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F85D837F-3DB2-45E0-8E1E-89FC926F840E}" name="표1_3" displayName="표1_3" ref="B2:F12" totalsRowShown="0">
+  <autoFilter ref="B2:F12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FAA226DF-BE98-4F1A-9A9E-6ADD0662CD43}" name="일자"/>
+    <tableColumn id="2" xr3:uid="{A05EC260-E04C-4007-9022-1E2A93F61F34}" name="김민석" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D63A274E-5B02-41F1-9A20-6377152CBF0E}" name="전민용" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E793B702-13DC-4CFC-9D8A-A322C782389A}" name="류한진" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{47DD6FDC-8E9E-4E2B-B916-EA4B7A0E0E34}" name="특이사항" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B2:F8" totalsRowShown="0">
+  <autoFilter ref="B2:F8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="일자"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="김민석" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="전민용" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="류한진" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="특이사항" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -591,26 +972,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB8AD1-A669-4C08-89AA-4B8DA7C93B31}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="34.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="43.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -630,91 +1012,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="34:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH17" s="1"/>
     </row>
@@ -732,16 +1113,371 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFF5FD3-B81C-4B07-846F-842619156895}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="48" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="34.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/클리니아/개발직군_scrum일지.xlsx
+++ b/클리니아/개발직군_scrum일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FBEE0-F202-48D5-B683-D15DA563F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B5705-D2CC-48E4-B635-A55C91782619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="750" windowWidth="31695" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1425" windowWidth="31695" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11월" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,52 @@
   </si>
   <si>
     <t>마을맵 받았음, 미니맵 작업물로 작업중이나 실제 맵이랑 싱크가 안맞음 ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G-Star 일정으로 11월 3주차는 휴게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 채워짐, material 수정가능해 보임, 색 입히는건 찾는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 밸런싱 도구 구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 AI개선 관련 회의
+맵 크기 조절, 몬스터 그룹핑 재정의, 추적 규칙 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 데미지 표시, 보스몹 세부구현(약간의 버그가 있었음), 사망-부활처리(UI 다듬는 작업 필요해보임)
+이펙트가 몬스터에게 종속되지 않도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트와 관련된 흐름 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피기술에 대한 제언</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB8AD1-A669-4C08-89AA-4B8DA7C93B31}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,9 +1137,57 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="34:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1116,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFF5FD3-B81C-4B07-846F-842619156895}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1331,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/클리니아/개발직군_scrum일지.xlsx
+++ b/클리니아/개발직군_scrum일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B5705-D2CC-48E4-B635-A55C91782619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB703786-0800-40FC-97F4-56BBA037EB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1425" windowWidth="31695" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1440" windowWidth="31695" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11월" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +537,19 @@
   </si>
   <si>
     <t>회피기술에 대한 제언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 1일 오프라인 교실에 모여서 단체로 코드리뷰 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상속 관계가 너무 복잡하게 되어있다
+어디서 무엇이 어떻게 처리가 되는지 정확한 추적이 힘들다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 쉐이크 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB8AD1-A669-4C08-89AA-4B8DA7C93B31}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1201,23 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="34:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH17" s="1"/>
@@ -1210,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFF5FD3-B81C-4B07-846F-842619156895}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/클리니아/개발직군_scrum일지.xlsx
+++ b/클리니아/개발직군_scrum일지.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB703786-0800-40FC-97F4-56BBA037EB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A527A0-675D-42E8-85E9-F4DBDDF24CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1440" windowWidth="31695" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="11월" sheetId="4" r:id="rId1"/>
-    <sheet name="10월" sheetId="3" r:id="rId2"/>
-    <sheet name="9월" sheetId="1" r:id="rId3"/>
+    <sheet name="12월" sheetId="6" r:id="rId1"/>
+    <sheet name="11월" sheetId="4" r:id="rId2"/>
+    <sheet name="10월" sheetId="3" r:id="rId3"/>
+    <sheet name="9월" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +551,14 @@
   </si>
   <si>
     <t>카메라 쉐이크 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트에 약간의 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어캐릭터 행동 및 각종 요소 구조개선 요구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,11 +648,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -694,42 +721,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{946AA356-3B80-4343-888E-6657B1D2295E}" name="표1_34" displayName="표1_34" ref="B2:F22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0878BEDC-D3CF-4527-B5CC-0DD16A24DD5B}" name="표1_345" displayName="표1_345" ref="B2:F22" totalsRowShown="0">
   <autoFilter ref="B2:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7859CC16-9C6D-4A01-9824-DE6BA19E8DD9}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{47043E36-FE60-443F-9443-C8AF7E4FAD0B}" name="김민석" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{0EBB9441-0553-4804-BCF4-86FEFFFE5726}" name="전민용" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{D8E9BC6D-2460-42CF-9AB8-ADD317495DD0}" name="류한진" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{72275BDF-E414-4B86-98CE-6F4ADEB777CD}" name="특이사항" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{89E265D9-7FB7-49E9-BF80-C066EC6B5323}" name="일자"/>
+    <tableColumn id="2" xr3:uid="{22E75CC7-1510-424C-B57F-C43020CE1DB4}" name="김민석" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{793F6D31-D651-4E2D-9F3E-1351C0D62CE7}" name="전민용" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{17E9B00A-1FF8-4A5A-88F9-15136EF79457}" name="류한진" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8C774185-3D2E-4EF4-8A23-0503392E6568}" name="특이사항" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F85D837F-3DB2-45E0-8E1E-89FC926F840E}" name="표1_3" displayName="표1_3" ref="B2:F12" totalsRowShown="0">
-  <autoFilter ref="B2:F12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{946AA356-3B80-4343-888E-6657B1D2295E}" name="표1_34" displayName="표1_34" ref="B2:F22" totalsRowShown="0">
+  <autoFilter ref="B2:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FAA226DF-BE98-4F1A-9A9E-6ADD0662CD43}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{A05EC260-E04C-4007-9022-1E2A93F61F34}" name="김민석" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D63A274E-5B02-41F1-9A20-6377152CBF0E}" name="전민용" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E793B702-13DC-4CFC-9D8A-A322C782389A}" name="류한진" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{47DD6FDC-8E9E-4E2B-B916-EA4B7A0E0E34}" name="특이사항" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7859CC16-9C6D-4A01-9824-DE6BA19E8DD9}" name="일자"/>
+    <tableColumn id="2" xr3:uid="{47043E36-FE60-443F-9443-C8AF7E4FAD0B}" name="김민석" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{0EBB9441-0553-4804-BCF4-86FEFFFE5726}" name="전민용" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D8E9BC6D-2460-42CF-9AB8-ADD317495DD0}" name="류한진" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{72275BDF-E414-4B86-98CE-6F4ADEB777CD}" name="특이사항" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F85D837F-3DB2-45E0-8E1E-89FC926F840E}" name="표1_3" displayName="표1_3" ref="B2:F12" totalsRowShown="0">
+  <autoFilter ref="B2:F12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FAA226DF-BE98-4F1A-9A9E-6ADD0662CD43}" name="일자"/>
+    <tableColumn id="2" xr3:uid="{A05EC260-E04C-4007-9022-1E2A93F61F34}" name="김민석" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D63A274E-5B02-41F1-9A20-6377152CBF0E}" name="전민용" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E793B702-13DC-4CFC-9D8A-A322C782389A}" name="류한진" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{47DD6FDC-8E9E-4E2B-B916-EA4B7A0E0E34}" name="특이사항" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B2:F8" totalsRowShown="0">
   <autoFilter ref="B2:F8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="김민석" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="전민용" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="류한진" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="특이사항" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="김민석" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="전민용" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="류한진" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="특이사항" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1031,11 +1072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB8AD1-A669-4C08-89AA-4B8DA7C93B31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B0DBD6-96C0-48AC-973C-BCBEDF1F6B50}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,10 +1089,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1072,153 +1113,33 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="34:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH17" s="1"/>
     </row>
@@ -1236,6 +1157,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB8AD1-A669-4C08-89AA-4B8DA7C93B31}">
+  <dimension ref="A1:AH17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="48" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="34:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFF5FD3-B81C-4B07-846F-842619156895}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1254,9 +1380,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1450,7 +1576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1468,9 +1594,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/클리니아/개발직군_scrum일지.xlsx
+++ b/클리니아/개발직군_scrum일지.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A527A0-675D-42E8-85E9-F4DBDDF24CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51988687-393B-406F-9F3B-EE17A0F01325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대청소 알고리즘 프로토타입 작성
 완전 랜덤으로 하려고 했다가 연산이 너무 복잡해서 미리 지점을 정해두는 방식으로 하기로 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +178,6 @@
   </si>
   <si>
     <t>몬스터 그룹핑과 관련된 토의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상호작용 오브젝트 상호작용 후 상호작용이 막히는 것 까지 / UI 표기 피드백 문제점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +215,6 @@
     <t>몰이사냥과 관련된 기획적 의도 확립
 빌드와 관련된 회의
 추후 일정과 관련된 토의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 스킬 부분 애니메이션 적용 가능
 몬스터끼리의 충돌규칙 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 드랍 구조설계(인스펙터에서 조절 가능하도록)
 이후 부분은 협업 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬이펙트 작업중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬을 사용할때만 한번에 돌도록 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>창고랑 인벤토리와 관련되서 아이템이 복사되는 오류 캐치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +357,6 @@
   </si>
   <si>
     <t>알고리즘이 필요하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,10 +374,6 @@
   </si>
   <si>
     <t>업무분장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -475,10 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작업중 외부적인 요인에서 발생한 이슈로인해 X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,10 +444,6 @@
   </si>
   <si>
     <t>마을맵 받았음, 미니맵 작업물로 작업중이나 실제 맵이랑 싱크가 안맞음 ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격 데미지 표시, 보스몹 세부구현(약간의 버그가 있었음), 사망-부활처리(UI 다듬는 작업 필요해보임)
 이펙트가 몬스터에게 종속되지 않도록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +503,43 @@
   </si>
   <si>
     <t>플레이어캐릭터 행동 및 각종 요소 구조개선 요구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리팩토링 / 버프구조 개선(행동제한, 능력치조정 구분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백과 관련된 자잘한 처리
+환경설정 값 모든 씬에서 공유하도록 개편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무분배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬개편, 구조개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렉 개선 이슈와 관련된 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트와 관련된 아이템 드랍과 관련된 개선 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정사항들 6시 전에 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savefile 및 로딩관련 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 적용중, 퀘스트 구조 정비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,6 +547,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,11 +632,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,10 +709,10 @@
   <autoFilter ref="B2:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{89E265D9-7FB7-49E9-BF80-C066EC6B5323}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{22E75CC7-1510-424C-B57F-C43020CE1DB4}" name="김민석" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{793F6D31-D651-4E2D-9F3E-1351C0D62CE7}" name="전민용" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{17E9B00A-1FF8-4A5A-88F9-15136EF79457}" name="류한진" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{8C774185-3D2E-4EF4-8A23-0503392E6568}" name="특이사항" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{22E75CC7-1510-424C-B57F-C43020CE1DB4}" name="김민석" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{793F6D31-D651-4E2D-9F3E-1351C0D62CE7}" name="전민용" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{17E9B00A-1FF8-4A5A-88F9-15136EF79457}" name="류한진" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{8C774185-3D2E-4EF4-8A23-0503392E6568}" name="특이사항" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,10 +723,10 @@
   <autoFilter ref="B2:F22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7859CC16-9C6D-4A01-9824-DE6BA19E8DD9}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{47043E36-FE60-443F-9443-C8AF7E4FAD0B}" name="김민석" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{0EBB9441-0553-4804-BCF4-86FEFFFE5726}" name="전민용" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{D8E9BC6D-2460-42CF-9AB8-ADD317495DD0}" name="류한진" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{72275BDF-E414-4B86-98CE-6F4ADEB777CD}" name="특이사항" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{47043E36-FE60-443F-9443-C8AF7E4FAD0B}" name="김민석" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{0EBB9441-0553-4804-BCF4-86FEFFFE5726}" name="전민용" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{D8E9BC6D-2460-42CF-9AB8-ADD317495DD0}" name="류한진" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{72275BDF-E414-4B86-98CE-6F4ADEB777CD}" name="특이사항" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,10 +737,10 @@
   <autoFilter ref="B2:F12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FAA226DF-BE98-4F1A-9A9E-6ADD0662CD43}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{A05EC260-E04C-4007-9022-1E2A93F61F34}" name="김민석" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{D63A274E-5B02-41F1-9A20-6377152CBF0E}" name="전민용" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E793B702-13DC-4CFC-9D8A-A322C782389A}" name="류한진" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{47DD6FDC-8E9E-4E2B-B916-EA4B7A0E0E34}" name="특이사항" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A05EC260-E04C-4007-9022-1E2A93F61F34}" name="김민석" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D63A274E-5B02-41F1-9A20-6377152CBF0E}" name="전민용" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E793B702-13DC-4CFC-9D8A-A322C782389A}" name="류한진" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{47DD6FDC-8E9E-4E2B-B916-EA4B7A0E0E34}" name="특이사항" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -767,10 +751,10 @@
   <autoFilter ref="B2:F8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="일자"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="김민석" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="전민용" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="류한진" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="특이사항" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="김민석" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="전민용" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="류한진" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="특이사항" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1073,14 +1057,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B0DBD6-96C0-48AC-973C-BCBEDF1F6B50}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="48" style="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.375" style="1" customWidth="1"/>
@@ -1090,9 +1076,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1113,17 +1099,70 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>44531</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>44537</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>44538</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>44539</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
@@ -1158,14 +1197,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB8AD1-A669-4C08-89AA-4B8DA7C93B31}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.375" style="1" customWidth="1"/>
@@ -1175,9 +1216,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1198,150 +1239,150 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="11">
+        <v>44502</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>44503</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>44509</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>44510</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>44511</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>103</v>
+      <c r="B9" s="11">
+        <v>44523</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>110</v>
+      <c r="B10" s="11">
+        <v>44525</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>25</v>
+      <c r="B11" s="11">
+        <v>44530</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1363,14 +1404,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFF5FD3-B81C-4B07-846F-842619156895}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.375" style="1" customWidth="1"/>
@@ -1380,9 +1423,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,164 +1446,164 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="11">
+        <v>44505</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>44506</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>44507</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>44513</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>44514</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>44519</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>44520</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>44521</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>44526</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="F11" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1578,6 +1621,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1594,9 +1638,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1618,19 +1662,19 @@
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,7 +1759,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/클리니아/개발직군_scrum일지.xlsx
+++ b/클리니아/개발직군_scrum일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51988687-393B-406F-9F3B-EE17A0F01325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C61B0E-7A2A-46A3-8F13-A1FF07038CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12월" sheetId="6" r:id="rId1"/>
